--- a/src/main/resources/resources/Login.xlsx
+++ b/src/main/resources/resources/Login.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/pageobjectmodel-seleniumFramework/seleniumPOM-project/src/test/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="5960" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="15840" yWindow="5955" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,6 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Test case Name</t>
   </si>
@@ -68,16 +60,36 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>latha@gmail.com</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>laxya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,13 +112,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -114,6 +129,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -406,20 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -447,7 +465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -461,7 +479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -475,7 +493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -489,7 +507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -503,7 +521,39 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -514,7 +564,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -526,7 +576,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
